--- a/paper_figures/Table4.xlsx
+++ b/paper_figures/Table4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
     <t>CASE</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>TO TOP 10%</t>
-  </si>
-  <si>
-    <t>Baseline</t>
   </si>
 </sst>
 </file>
@@ -74,26 +71,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>41.395290553569794</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="E3">
-        <v>84.743987917900085</v>
+      <c r="D1" t="s">
+        <v>2</v>
       </c>
-      <c r="F3">
-        <v>17.746388370340522</v>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/paper_figures/Table4.xlsx
+++ b/paper_figures/Table4.xlsx
@@ -6,14 +6,17 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Q=1" sheetId="1" r:id="rId2"/>
+    <sheet name="Q=0" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="19">
+  <si>
+    <t>Baseline</t>
+  </si>
   <si>
     <t>CASE</t>
   </si>
@@ -21,13 +24,52 @@
     <t>PARAMETER</t>
   </si>
   <si>
-    <t>AVG. SUBSIDY</t>
-  </si>
-  <si>
-    <t>TO LOWER 10%</t>
-  </si>
-  <si>
-    <t>TO TOP 10%</t>
+    <t>AVG. SUBSIDY (DISCOUNTED)</t>
+  </si>
+  <si>
+    <t>FRACTION REPAID (NOT DISCOUNTED)</t>
+  </si>
+  <si>
+    <t>FRACTION REPAID TOP 10%</t>
+  </si>
+  <si>
+    <t>FRACTION REPAID BOTTOM 10%</t>
+  </si>
+  <si>
+    <t>WITHIN PROG - GTF</t>
+  </si>
+  <si>
+    <t>WITHIN PROG - ICL</t>
+  </si>
+  <si>
+    <t>Changing Interest R. (first row is baseline)</t>
+  </si>
+  <si>
+    <t>Interest R.</t>
+  </si>
+  <si>
+    <t>Changing Debt (first row is baseline)</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Changing Exempt (first row is baseline)</t>
+  </si>
+  <si>
+    <t>Exempt</t>
+  </si>
+  <si>
+    <t>Changing Debt Write-Off (first row is baseline)</t>
+  </si>
+  <si>
+    <t>Debt Write-Off</t>
+  </si>
+  <si>
+    <t>Changing Repay.Rate (first row is baseline)</t>
+  </si>
+  <si>
+    <t>Repay.Rate</t>
   </si>
 </sst>
 </file>
@@ -71,24 +113,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:I28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D3">
+        <v>46.330174997448921</v>
+      </c>
+      <c r="E3">
+        <v>70.295752644538879</v>
+      </c>
+      <c r="F3">
+        <v>99.843111905184657</v>
+      </c>
+      <c r="G3">
+        <v>14.77699875831604</v>
+      </c>
+      <c r="H3">
+        <v>1.7689666487909901</v>
+      </c>
+      <c r="I3">
+        <v>7.0537200015153738</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>44.448065415024764</v>
+      </c>
+      <c r="E6">
+        <v>73.061189293861389</v>
+      </c>
+      <c r="F6">
+        <v>104.88448143005371</v>
+      </c>
+      <c r="G6">
+        <v>14.77699875831604</v>
+      </c>
+      <c r="H6">
+        <v>1.7689666487909901</v>
+      </c>
+      <c r="I6">
+        <v>7.3583664284977566</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D7">
+        <v>37.859808899695054</v>
+      </c>
+      <c r="E7">
+        <v>82.818418443202972</v>
+      </c>
+      <c r="F7">
+        <v>125.39828148755161</v>
+      </c>
+      <c r="G7">
+        <v>14.77699875831604</v>
+      </c>
+      <c r="H7">
+        <v>1.7689666487909901</v>
+      </c>
+      <c r="I7">
+        <v>8.6278760030332204</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0.80000000000000004</v>
+      </c>
+      <c r="D8">
+        <v>43.302068777382367</v>
+      </c>
+      <c r="E8">
+        <v>74.750535726547241</v>
+      </c>
+      <c r="F8">
+        <v>108.1141385165128</v>
+      </c>
+      <c r="G8">
+        <v>14.77699875831604</v>
+      </c>
+      <c r="H8">
+        <v>1.7689666487909901</v>
+      </c>
+      <c r="I8">
+        <v>7.5551288869537281</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>5000</v>
+      </c>
+      <c r="D11">
+        <v>24.05122048407793</v>
+      </c>
+      <c r="E11">
+        <v>91.863255858421326</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>50.858491063117981</v>
+      </c>
+      <c r="H11">
+        <v>3.1663085818824248</v>
+      </c>
+      <c r="I11">
+        <v>2.3680048569243368</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>40000</v>
+      </c>
+      <c r="D12">
+        <v>60.896221503615379</v>
+      </c>
+      <c r="E12">
+        <v>52.950413048267365</v>
+      </c>
+      <c r="F12">
+        <v>98.409875414588228</v>
+      </c>
+      <c r="G12">
+        <v>7.7579247951507595</v>
+      </c>
+      <c r="H12">
+        <v>1.4354339995072141</v>
+      </c>
+      <c r="I12">
+        <v>11.66918579375905</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>10000</v>
+      </c>
+      <c r="D13">
+        <v>32.753310091793544</v>
+      </c>
+      <c r="E13">
+        <v>84.416072428226471</v>
+      </c>
+      <c r="F13">
+        <v>99.987563761797816</v>
+      </c>
+      <c r="G13">
+        <v>30.398445725440983</v>
+      </c>
+      <c r="H13">
+        <v>2.381693195540886</v>
+      </c>
+      <c r="I13">
+        <v>3.7988164959310819</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>10000</v>
+      </c>
+      <c r="D16">
+        <v>35.237113639712341</v>
+      </c>
+      <c r="E16">
+        <v>82.871692061424255</v>
+      </c>
+      <c r="F16">
+        <v>99.949370189146563</v>
+      </c>
+      <c r="G16">
+        <v>31.406827569007874</v>
+      </c>
+      <c r="H16">
+        <v>1.7689666487909901</v>
+      </c>
+      <c r="I16">
+        <v>3.5585759039214651</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>25000</v>
+      </c>
+      <c r="D17">
+        <v>64.443092986941338</v>
+      </c>
+      <c r="E17">
+        <v>48.094181954860687</v>
+      </c>
+      <c r="F17">
+        <v>98.539015379819006</v>
+      </c>
+      <c r="G17">
+        <v>3.4640979766845699</v>
+      </c>
+      <c r="H17">
+        <v>1.7689666487909901</v>
+      </c>
+      <c r="I17">
+        <v>18.006623057737091</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>20000</v>
+      </c>
+      <c r="D18">
+        <v>56.199649423360817</v>
+      </c>
+      <c r="E18">
+        <v>58.408021509647369</v>
+      </c>
+      <c r="F18">
+        <v>99.496405233036384</v>
+      </c>
+      <c r="G18">
+        <v>7.02147424221039</v>
+      </c>
+      <c r="H18">
+        <v>1.7689666487909901</v>
+      </c>
+      <c r="I18">
+        <v>12.391721161855511</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
         <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>15000</v>
+      </c>
+      <c r="D21">
+        <v>63.705366998910904</v>
+      </c>
+      <c r="E21">
+        <v>44.170930564403534</v>
+      </c>
+      <c r="F21">
+        <v>87.348351153460413</v>
+      </c>
+      <c r="G21">
+        <v>8.9161694049835205</v>
+      </c>
+      <c r="H21">
+        <v>1.7689666487909901</v>
+      </c>
+      <c r="I21">
+        <v>8.7997057405808707</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>30000</v>
+      </c>
+      <c r="D22">
+        <v>41.637365013360977</v>
+      </c>
+      <c r="E22">
+        <v>78.726495325565338</v>
+      </c>
+      <c r="F22">
+        <v>99.99397288669239</v>
+      </c>
+      <c r="G22">
+        <v>18.36459398269653</v>
+      </c>
+      <c r="H22">
+        <v>1.7689666487909901</v>
+      </c>
+      <c r="I22">
+        <v>6.1036217763663068</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>20000</v>
+      </c>
+      <c r="D23">
+        <v>52.827712759375565</v>
+      </c>
+      <c r="E23">
+        <v>59.842934250831604</v>
+      </c>
+      <c r="F23">
+        <v>98.246058550747961</v>
+      </c>
+      <c r="G23">
+        <v>12.15278744697571</v>
+      </c>
+      <c r="H23">
+        <v>1.7689666487909901</v>
+      </c>
+      <c r="I23">
+        <v>7.9231717325880586</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>62.037807509303086</v>
+      </c>
+      <c r="E26">
+        <v>51.515931904315948</v>
+      </c>
+      <c r="F26">
+        <v>98.111645741896197</v>
+      </c>
+      <c r="G26">
+        <v>7.3884987831115705</v>
+      </c>
+      <c r="H26">
+        <v>1.7689666487909901</v>
+      </c>
+      <c r="I26">
+        <v>11.23815189465339</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>38.374445125460632</v>
+      </c>
+      <c r="E27">
+        <v>78.862072050571442</v>
+      </c>
+      <c r="F27">
+        <v>99.944260987368494</v>
+      </c>
+      <c r="G27">
+        <v>22.102432250976559</v>
+      </c>
+      <c r="H27">
+        <v>1.7689666487909901</v>
+      </c>
+      <c r="I27">
+        <v>4.9979623969245859</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>51.174635693430901</v>
+      </c>
+      <c r="E28">
+        <v>64.743549048900604</v>
+      </c>
+      <c r="F28">
+        <v>99.685065312819049</v>
+      </c>
+      <c r="G28">
+        <v>11.82159900665283</v>
+      </c>
+      <c r="H28">
+        <v>1.7689666487909901</v>
+      </c>
+      <c r="I28">
+        <v>8.3792028734108968</v>
       </c>
     </row>
   </sheetData>
